--- a/ML_Project.xlsx
+++ b/ML_Project.xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Legend" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="conversion" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="williams ng famemg sample" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="YyFf2S2eAT4HkckCYqHFUYCZjzm06DKiwtg9KWaL9Cg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Go3BVisks6NzmUeFb0LL86JtRRqhKQbx75ogbuTol/k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
   <si>
     <t>Sample_name</t>
   </si>
@@ -468,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -494,6 +495,16 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -524,8 +535,20 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,6 +567,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -945,15 +972,15 @@
         <v>4.2</v>
       </c>
       <c r="Y2" s="5">
-        <f t="shared" ref="Y2:Y18" si="3">SUM(G2:X2)</f>
+        <f t="shared" ref="Y2:Y40" si="3">SUM(G2:X2)</f>
         <v>69.74626054</v>
       </c>
       <c r="Z2" s="5">
-        <f t="shared" ref="Z2:Z37" si="4">X2+S2</f>
+        <f t="shared" ref="Z2:Z40" si="4">X2+S2</f>
         <v>30.2</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" ref="AA2:AA37" si="5">N2+O2+R2+T2+W2</f>
+        <f t="shared" ref="AA2:AA40" si="5">N2+O2+R2+T2+W2</f>
         <v>13.83058688</v>
       </c>
       <c r="AB2" s="5">
@@ -2505,36 +2532,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="N19" s="2">
-        <v>1707.1199999999997</v>
-      </c>
-      <c r="O19" s="2">
-        <v>696.9599999999999</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1006.3199999999999</v>
-      </c>
-      <c r="R19" s="2">
-        <v>585.5999999999999</v>
+      <c r="G19" s="6">
+        <v>8283.722793</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7094.426</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1958.699</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>31546.62</v>
+      </c>
+      <c r="N19" s="6">
+        <v>12603.66</v>
+      </c>
+      <c r="O19" s="6">
+        <v>5145.782</v>
+      </c>
+      <c r="P19" s="6">
+        <v>7428.687</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>4323.994</v>
       </c>
       <c r="S19" s="6">
-        <v>45265.91999999999</v>
+        <v>334182.6</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>6798.439</v>
       </c>
       <c r="W19" s="6">
-        <v>2367.8399999999997</v>
+        <v>17481.03</v>
       </c>
       <c r="X19" s="6">
-        <v>11888.159999999998</v>
-      </c>
-      <c r="Y19" s="5"/>
+        <v>87766.82</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="3"/>
+        <v>524614.4798</v>
+      </c>
       <c r="Z19" s="5">
         <f t="shared" si="4"/>
-        <v>57154.08</v>
+        <v>421949.42</v>
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="5"/>
-        <v>5357.52</v>
+        <v>39554.466</v>
       </c>
       <c r="AB19" s="5">
         <f t="shared" ref="AB19:AC19" si="22">IFS(Z19&lt;10, 0, AND(Z19&gt;10,Z19&lt;100), 1, Z19&gt;100, 2)</f>
@@ -2546,7 +2608,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="2">
@@ -2565,36 +2627,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="N20" s="2">
-        <v>53.120000000000005</v>
-      </c>
-      <c r="O20" s="2">
-        <v>19.52</v>
-      </c>
-      <c r="P20" s="2">
-        <v>54.56</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="G20" s="6">
+        <v>2568.070533</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4972.456</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4662.411</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1335.347</v>
+      </c>
+      <c r="O20" s="6">
+        <v>490.0441</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1370.383</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="6">
         <v>0.0</v>
       </c>
       <c r="S20" s="6">
-        <v>347.6</v>
+        <v>87152.58</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1708.473</v>
       </c>
       <c r="W20" s="6">
         <v>0.0</v>
       </c>
       <c r="X20" s="6">
-        <v>2724.7200000000003</v>
-      </c>
-      <c r="Y20" s="5"/>
+        <v>68480.17</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="3"/>
+        <v>172739.9346</v>
+      </c>
       <c r="Z20" s="5">
         <f t="shared" si="4"/>
-        <v>3072.32</v>
+        <v>155632.75</v>
       </c>
       <c r="AA20" s="5">
         <f t="shared" si="5"/>
-        <v>72.64</v>
+        <v>1825.3911</v>
       </c>
       <c r="AB20" s="5">
         <f t="shared" ref="AB20:AC20" si="23">IFS(Z20&lt;10, 0, AND(Z20&gt;10,Z20&lt;100), 1, Z20&gt;100, 2)</f>
@@ -2602,11 +2699,11 @@
       </c>
       <c r="AC20" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="2">
@@ -2625,35 +2722,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="2">
-        <v>55.040000000000006</v>
-      </c>
-      <c r="O21" s="2">
-        <v>33.54</v>
-      </c>
-      <c r="P21" s="2">
-        <v>74.39</v>
-      </c>
-      <c r="R21" s="2">
-        <v>341.42</v>
+      <c r="G21" s="6">
+        <v>827.3216834</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2321.879</v>
+      </c>
+      <c r="J21" s="6">
+        <v>547.3367</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1166.524</v>
+      </c>
+      <c r="N21" s="6">
+        <v>762.3397</v>
+      </c>
+      <c r="O21" s="6">
+        <v>463.763</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1035.264</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>4738.403</v>
       </c>
       <c r="S21" s="6">
-        <v>690.5799999999999</v>
+        <v>9587.513</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="6">
+        <v>445.5364</v>
       </c>
       <c r="W21" s="6">
-        <v>426.99</v>
+        <v>5928.334</v>
       </c>
       <c r="X21" s="6">
-        <v>191.35</v>
-      </c>
-      <c r="Y21" s="5"/>
+        <v>2654.9</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="3"/>
+        <v>30479.11448</v>
+      </c>
       <c r="Z21" s="5">
         <f t="shared" si="4"/>
-        <v>881.93</v>
+        <v>12242.413</v>
       </c>
       <c r="AA21" s="5">
         <f t="shared" si="5"/>
-        <v>856.99</v>
+        <v>11892.8397</v>
       </c>
       <c r="AB21" s="5">
         <f t="shared" ref="AB21:AC21" si="24">IFS(Z21&lt;10, 0, AND(Z21&gt;10,Z21&lt;100), 1, Z21&gt;100, 2)</f>
@@ -2665,7 +2798,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2">
@@ -2684,35 +2817,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
-        <v>33.1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="P22" s="2">
-        <v>67.4</v>
-      </c>
-      <c r="R22" s="2">
-        <v>266.7</v>
+      <c r="G22" s="6">
+        <v>628.3342108</v>
+      </c>
+      <c r="H22" s="6">
+        <v>797.1446</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1328.313</v>
+      </c>
+      <c r="J22" s="6">
+        <v>22.9411</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2198.037</v>
+      </c>
+      <c r="N22" s="6">
+        <v>462.0313</v>
+      </c>
+      <c r="O22" s="6">
+        <v>394.0505</v>
+      </c>
+      <c r="P22" s="6">
+        <v>941.6909</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>3726.975</v>
       </c>
       <c r="S22" s="6">
-        <v>565.5</v>
+        <v>7903.058</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>62.40012</v>
       </c>
       <c r="W22" s="6">
-        <v>326.5</v>
+        <v>4562.808</v>
       </c>
       <c r="X22" s="6">
-        <v>224.9</v>
-      </c>
-      <c r="Y22" s="5"/>
+        <v>3143.943</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="3"/>
+        <v>26171.72673</v>
+      </c>
       <c r="Z22" s="5">
         <f t="shared" si="4"/>
-        <v>790.4</v>
+        <v>11047.001</v>
       </c>
       <c r="AA22" s="5">
         <f t="shared" si="5"/>
-        <v>654.5</v>
+        <v>9145.8648</v>
       </c>
       <c r="AB22" s="5">
         <f t="shared" ref="AB22:AC22" si="25">IFS(Z22&lt;10, 0, AND(Z22&gt;10,Z22&lt;100), 1, Z22&gt;100, 2)</f>
@@ -2724,7 +2893,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="2">
@@ -2743,35 +2912,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="O23" s="2">
-        <v>25.12</v>
-      </c>
-      <c r="P23" s="2">
-        <v>42.56000000000001</v>
-      </c>
-      <c r="R23" s="2">
-        <v>272.72</v>
+      <c r="G23" s="6">
+        <v>224.5456943</v>
+      </c>
+      <c r="H23" s="6">
+        <v>608.8804</v>
+      </c>
+      <c r="I23" s="6">
+        <v>273.0607</v>
+      </c>
+      <c r="J23" s="6">
+        <v>171.8477</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>699.4654</v>
+      </c>
+      <c r="N23" s="6">
+        <v>348.935</v>
+      </c>
+      <c r="O23" s="6">
+        <v>383.737</v>
+      </c>
+      <c r="P23" s="6">
+        <v>650.0576</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>4169.128</v>
       </c>
       <c r="S23" s="6">
-        <v>390.40000000000003</v>
+        <v>5968.408</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>167.1401</v>
       </c>
       <c r="W23" s="6">
-        <v>353.52000000000004</v>
+        <v>5404.174</v>
       </c>
       <c r="X23" s="6">
-        <v>125.44000000000003</v>
-      </c>
-      <c r="Y23" s="5"/>
+        <v>1918.141</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" si="3"/>
+        <v>20987.52059</v>
+      </c>
       <c r="Z23" s="5">
         <f t="shared" si="4"/>
-        <v>515.84</v>
+        <v>7886.549</v>
       </c>
       <c r="AA23" s="5">
         <f t="shared" si="5"/>
-        <v>674.16</v>
+        <v>10305.974</v>
       </c>
       <c r="AB23" s="5">
         <f t="shared" ref="AB23:AC23" si="26">IFS(Z23&lt;10, 0, AND(Z23&gt;10,Z23&lt;100), 1, Z23&gt;100, 2)</f>
@@ -2783,7 +2988,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="2">
@@ -2802,35 +3007,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="2">
-        <v>25.219999999999995</v>
-      </c>
-      <c r="O24" s="2">
-        <v>38.61</v>
-      </c>
-      <c r="P24" s="2">
-        <v>97.49999999999999</v>
-      </c>
-      <c r="R24" s="2">
-        <v>311.74</v>
+      <c r="G24" s="6">
+        <v>367.8031105</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>424.8461</v>
+      </c>
+      <c r="J24" s="6">
+        <v>578.6559</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>816.5276</v>
+      </c>
+      <c r="N24" s="6">
+        <v>421.1654</v>
+      </c>
+      <c r="O24" s="6">
+        <v>644.5417</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1627.367</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>5203.848</v>
       </c>
       <c r="S24" s="6">
-        <v>456.3</v>
+        <v>7631.457</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>487.2359</v>
       </c>
       <c r="W24" s="6">
-        <v>156.90999999999997</v>
+        <v>2619.717</v>
       </c>
       <c r="X24" s="6">
-        <v>234.12999999999997</v>
-      </c>
-      <c r="Y24" s="5"/>
+        <v>3908.883</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" si="3"/>
+        <v>24732.04771</v>
+      </c>
       <c r="Z24" s="5">
         <f t="shared" si="4"/>
-        <v>690.43</v>
+        <v>11540.34</v>
       </c>
       <c r="AA24" s="5">
         <f t="shared" si="5"/>
-        <v>532.48</v>
+        <v>8889.2721</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" ref="AB24:AC24" si="27">IFS(Z24&lt;10, 0, AND(Z24&gt;10,Z24&lt;100), 1, Z24&gt;100, 2)</f>
@@ -2842,7 +3083,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="2">
@@ -2861,35 +3102,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="2">
-        <v>22.05</v>
-      </c>
-      <c r="O25" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>147.75</v>
-      </c>
-      <c r="R25" s="2">
-        <v>650.1</v>
+      <c r="G25" s="6">
+        <v>566.6479762</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1741.656</v>
+      </c>
+      <c r="J25" s="6">
+        <v>351.0444</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>3479.059</v>
+      </c>
+      <c r="N25" s="6">
+        <v>201.9113</v>
+      </c>
+      <c r="O25" s="6">
+        <v>495.5312</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1358.046</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>5972.913</v>
       </c>
       <c r="S25" s="6">
-        <v>957.75</v>
+        <v>8799.849</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>890.4522</v>
       </c>
       <c r="W25" s="6">
-        <v>316.95</v>
+        <v>2912.83</v>
       </c>
       <c r="X25" s="6">
-        <v>178.95</v>
-      </c>
-      <c r="Y25" s="5"/>
+        <v>1643.607</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" si="3"/>
+        <v>28413.54708</v>
+      </c>
       <c r="Z25" s="5">
         <f t="shared" si="4"/>
-        <v>1136.7</v>
+        <v>10443.456</v>
       </c>
       <c r="AA25" s="5">
         <f t="shared" si="5"/>
-        <v>1043.1</v>
+        <v>9583.1855</v>
       </c>
       <c r="AB25" s="5">
         <f t="shared" ref="AB25:AC25" si="28">IFS(Z25&lt;10, 0, AND(Z25&gt;10,Z25&lt;100), 1, Z25&gt;100, 2)</f>
@@ -2901,7 +3178,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="2">
@@ -2920,35 +3197,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>62.64</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="G26" s="6">
+        <v>1831.115665</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1974.8</v>
+      </c>
+      <c r="I26" s="6">
+        <v>800.5491</v>
+      </c>
+      <c r="J26" s="6">
+        <v>295.8568</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1215.162</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>784.1084</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="6">
         <v>0.0</v>
       </c>
       <c r="S26" s="6">
-        <v>1496.8000000000002</v>
+        <v>18737.62</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>595.2311</v>
       </c>
       <c r="W26" s="6">
-        <v>33.160000000000004</v>
+        <v>414.9948</v>
       </c>
       <c r="X26" s="6">
-        <v>576.3600000000001</v>
-      </c>
-      <c r="Y26" s="5"/>
+        <v>7215.036</v>
+      </c>
+      <c r="Y26" s="5">
+        <f t="shared" si="3"/>
+        <v>33864.47387</v>
+      </c>
       <c r="Z26" s="5">
         <f t="shared" si="4"/>
-        <v>2073.16</v>
+        <v>25952.656</v>
       </c>
       <c r="AA26" s="5">
         <f t="shared" si="5"/>
-        <v>33.16</v>
+        <v>414.9948</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" ref="AB26:AC26" si="29">IFS(Z26&lt;10, 0, AND(Z26&gt;10,Z26&lt;100), 1, Z26&gt;100, 2)</f>
@@ -2956,11 +3269,11 @@
       </c>
       <c r="AC26" s="5">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="2">
@@ -2979,31 +3292,67 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>32.94</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="G27" s="6">
+        <v>2317.998286</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2872.638</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2875.041</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1083.304</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2547.201</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>824.6934</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="6">
         <v>0.0</v>
       </c>
       <c r="S27" s="6">
-        <v>828.22</v>
+        <v>20736.11</v>
+      </c>
+      <c r="T27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0.0</v>
       </c>
       <c r="W27" s="6">
         <v>0.0</v>
       </c>
       <c r="X27" s="6">
-        <v>199.30999999999997</v>
-      </c>
-      <c r="Y27" s="5"/>
+        <v>4990.041</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" si="3"/>
+        <v>38247.02669</v>
+      </c>
       <c r="Z27" s="5">
         <f t="shared" si="4"/>
-        <v>1027.53</v>
+        <v>25726.151</v>
       </c>
       <c r="AA27" s="5">
         <f t="shared" si="5"/>
@@ -3019,7 +3368,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="2">
@@ -3038,31 +3387,67 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>721.37</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="G28" s="6">
+        <v>13687.03813</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20943.92</v>
+      </c>
+      <c r="I28" s="6">
+        <v>11309.66</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4352.095</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>5290.194</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>7776.532</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="6">
         <v>0.0</v>
       </c>
       <c r="S28" s="6">
-        <v>6052.150000000001</v>
+        <v>65250.63</v>
+      </c>
+      <c r="T28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="6">
+        <v>2140.708</v>
       </c>
       <c r="W28" s="6">
         <v>0.0</v>
       </c>
       <c r="X28" s="6">
-        <v>2042.6899999999998</v>
-      </c>
-      <c r="Y28" s="5"/>
+        <v>22022.31</v>
+      </c>
+      <c r="Y28" s="5">
+        <f t="shared" si="3"/>
+        <v>152773.0871</v>
+      </c>
       <c r="Z28" s="5">
         <f t="shared" si="4"/>
-        <v>8094.84</v>
+        <v>87272.94</v>
       </c>
       <c r="AA28" s="5">
         <f t="shared" si="5"/>
@@ -3078,7 +3463,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="2">
@@ -3097,31 +3482,67 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="R29" s="2">
+      <c r="G29" s="6">
+        <v>430.1582709</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>710.1942</v>
+      </c>
+      <c r="J29" s="6">
+        <v>87.16423</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>348.9623</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>111.7867</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R29" s="6">
         <v>0.0</v>
       </c>
       <c r="S29" s="6">
-        <v>164.02</v>
+        <v>4839.364</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="6">
+        <v>103.9309</v>
       </c>
       <c r="W29" s="6">
         <v>0.0</v>
       </c>
       <c r="X29" s="6">
-        <v>87.88</v>
-      </c>
-      <c r="Y29" s="5"/>
+        <v>2593.219</v>
+      </c>
+      <c r="Y29" s="5">
+        <f t="shared" si="3"/>
+        <v>9224.779601</v>
+      </c>
       <c r="Z29" s="5">
         <f t="shared" si="4"/>
-        <v>251.9</v>
+        <v>7432.583</v>
       </c>
       <c r="AA29" s="5">
         <f t="shared" si="5"/>
@@ -3137,7 +3558,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="2">
@@ -3156,35 +3577,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>287.50000000000006</v>
-      </c>
-      <c r="R30" s="2">
-        <v>62.2</v>
+      <c r="G30" s="6">
+        <v>2446.779425</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4047.469</v>
+      </c>
+      <c r="J30" s="6">
+        <v>192.716</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6351.624</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>4709.637</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>1019.05</v>
       </c>
       <c r="S30" s="6">
-        <v>8073.299999999999</v>
+        <v>132265.6</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="6">
+        <v>6465.673</v>
       </c>
       <c r="W30" s="6">
-        <v>1469.2</v>
+        <v>24069.82</v>
       </c>
       <c r="X30" s="6">
-        <v>2295.9</v>
-      </c>
-      <c r="Y30" s="5"/>
+        <v>37614.19</v>
+      </c>
+      <c r="Y30" s="5">
+        <f t="shared" si="3"/>
+        <v>219182.5584</v>
+      </c>
       <c r="Z30" s="5">
         <f t="shared" si="4"/>
-        <v>10369.2</v>
+        <v>169879.79</v>
       </c>
       <c r="AA30" s="5">
         <f t="shared" si="5"/>
-        <v>1531.4</v>
+        <v>25088.87</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" ref="AB30:AC30" si="33">IFS(Z30&lt;10, 0, AND(Z30&gt;10,Z30&lt;100), 1, Z30&gt;100, 2)</f>
@@ -3196,7 +3653,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="2">
@@ -3215,35 +3672,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="G31" s="6">
+        <v>269.9928391</v>
+      </c>
+      <c r="H31" s="6">
+        <v>102.0677</v>
+      </c>
+      <c r="I31" s="6">
+        <v>203.6108</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>290.8137</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>52.50489</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R31" s="6">
         <v>0.0</v>
       </c>
       <c r="S31" s="6">
-        <v>888.88</v>
+        <v>8627.354</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="6">
+        <v>62.24669</v>
       </c>
       <c r="W31" s="6">
-        <v>39.14</v>
+        <v>379.8067</v>
       </c>
       <c r="X31" s="6">
-        <v>804.2600000000001</v>
-      </c>
-      <c r="Y31" s="5"/>
+        <v>7806.091</v>
+      </c>
+      <c r="Y31" s="5">
+        <f t="shared" si="3"/>
+        <v>17794.48832</v>
+      </c>
       <c r="Z31" s="5">
         <f t="shared" si="4"/>
-        <v>1693.14</v>
+        <v>16433.445</v>
       </c>
       <c r="AA31" s="5">
         <f t="shared" si="5"/>
-        <v>39.14</v>
+        <v>379.8067</v>
       </c>
       <c r="AB31" s="5">
         <f t="shared" ref="AB31:AC31" si="34">IFS(Z31&lt;10, 0, AND(Z31&gt;10,Z31&lt;100), 1, Z31&gt;100, 2)</f>
@@ -3251,11 +3744,11 @@
       </c>
       <c r="AC31" s="5">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="2">
@@ -3274,35 +3767,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>423.15000000000003</v>
-      </c>
-      <c r="R32" s="2">
-        <v>1516.0500000000002</v>
+      <c r="G32" s="6">
+        <v>3021.120728</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1988.224</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>8903.785</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>4533.571</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>16244.01</v>
       </c>
       <c r="S32" s="6">
-        <v>15970.5</v>
+        <v>171125.3</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="6">
+        <v>4760.365</v>
       </c>
       <c r="W32" s="6">
-        <v>2977.2</v>
+        <v>31901.64</v>
       </c>
       <c r="X32" s="6">
-        <v>7065.900000000001</v>
-      </c>
-      <c r="Y32" s="5"/>
+        <v>75711.1</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="3"/>
+        <v>318189.1157</v>
+      </c>
       <c r="Z32" s="5">
         <f t="shared" si="4"/>
-        <v>23036.4</v>
+        <v>246836.4</v>
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="5"/>
-        <v>4493.25</v>
+        <v>48145.65</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" ref="AB32:AC32" si="35">IFS(Z32&lt;10, 0, AND(Z32&gt;10,Z32&lt;100), 1, Z32&gt;100, 2)</f>
@@ -3314,7 +3843,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="2">
@@ -3333,35 +3862,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>36.339999999999996</v>
+      <c r="G33" s="6">
+        <v>626.2537932</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>752.8922</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>374.404</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>310.3097</v>
       </c>
       <c r="S33" s="6">
-        <v>1504.6200000000001</v>
+        <v>12851.28</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0.0</v>
       </c>
       <c r="W33" s="6">
         <v>0.0</v>
       </c>
       <c r="X33" s="6">
-        <v>1389.94</v>
-      </c>
-      <c r="Y33" s="5"/>
+        <v>11871.86</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" si="3"/>
+        <v>26786.99969</v>
+      </c>
       <c r="Z33" s="5">
         <f t="shared" si="4"/>
-        <v>2894.56</v>
+        <v>24723.14</v>
       </c>
       <c r="AA33" s="5">
         <f t="shared" si="5"/>
-        <v>36.34</v>
+        <v>310.3097</v>
       </c>
       <c r="AB33" s="5">
         <f t="shared" ref="AB33:AC33" si="36">IFS(Z33&lt;10, 0, AND(Z33&gt;10,Z33&lt;100), 1, Z33&gt;100, 2)</f>
@@ -3369,11 +3934,11 @@
       </c>
       <c r="AC33" s="5">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="2">
@@ -3392,35 +3957,71 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N34" s="2">
-        <v>157.38</v>
-      </c>
-      <c r="O34" s="2">
-        <v>292.79999999999995</v>
-      </c>
-      <c r="P34" s="2">
-        <v>507.52</v>
-      </c>
-      <c r="R34" s="2">
-        <v>1722.03</v>
+      <c r="G34" s="6">
+        <v>5483.009796</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4490.404</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3517.481</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>10029.95</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>7966.905</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>27020.32</v>
       </c>
       <c r="S34" s="6">
-        <v>4856.82</v>
+        <v>76198.57</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V34" s="6">
+        <v>10381.58</v>
       </c>
       <c r="W34" s="6">
-        <v>6570.92</v>
+        <v>103091.5</v>
       </c>
       <c r="X34" s="6">
-        <v>1549.3999999999999</v>
-      </c>
-      <c r="Y34" s="5"/>
+        <v>24309.16</v>
+      </c>
+      <c r="Y34" s="5">
+        <f t="shared" si="3"/>
+        <v>272488.8798</v>
+      </c>
       <c r="Z34" s="5">
         <f t="shared" si="4"/>
-        <v>6406.22</v>
+        <v>100507.73</v>
       </c>
       <c r="AA34" s="5">
         <f t="shared" si="5"/>
-        <v>8743.13</v>
+        <v>130111.82</v>
       </c>
       <c r="AB34" s="5">
         <f t="shared" ref="AB34:AC34" si="37">IFS(Z34&lt;10, 0, AND(Z34&gt;10,Z34&lt;100), 1, Z34&gt;100, 2)</f>
@@ -3432,7 +4033,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="2">
@@ -3451,35 +4052,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="2">
-        <v>60.83999999999999</v>
-      </c>
-      <c r="O35" s="2">
-        <v>79.91999999999999</v>
-      </c>
-      <c r="P35" s="2">
-        <v>71.1</v>
-      </c>
-      <c r="R35" s="2">
-        <v>482.4</v>
+      <c r="G35" s="6">
+        <v>510.9929467</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1381.663</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1343.534</v>
+      </c>
+      <c r="J35" s="6">
+        <v>499.5671</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>3274.154</v>
+      </c>
+      <c r="N35" s="6">
+        <v>774.802</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1019.408</v>
+      </c>
+      <c r="P35" s="6">
+        <v>906.479</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>6149.732</v>
       </c>
       <c r="S35" s="6">
-        <v>736.92</v>
+        <v>9392.305</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="6">
+        <v>768.1184</v>
       </c>
       <c r="W35" s="6">
-        <v>406.62</v>
+        <v>5181.883</v>
       </c>
       <c r="X35" s="6">
-        <v>38.519999999999996</v>
-      </c>
-      <c r="Y35" s="5"/>
+        <v>491.1586</v>
+      </c>
+      <c r="Y35" s="5">
+        <f t="shared" si="3"/>
+        <v>31693.79705</v>
+      </c>
       <c r="Z35" s="5">
         <f t="shared" si="4"/>
-        <v>775.44</v>
+        <v>9883.4636</v>
       </c>
       <c r="AA35" s="5">
         <f t="shared" si="5"/>
-        <v>1029.78</v>
+        <v>13125.825</v>
       </c>
       <c r="AB35" s="5">
         <f t="shared" ref="AB35:AC35" si="38">IFS(Z35&lt;10, 0, AND(Z35&gt;10,Z35&lt;100), 1, Z35&gt;100, 2)</f>
@@ -3510,35 +4147,71 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>30.529999999999998</v>
-      </c>
-      <c r="R36" s="2">
-        <v>56.76</v>
+      <c r="G36" s="6">
+        <v>881.7576012</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1868.367</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1672.762</v>
+      </c>
+      <c r="J36" s="6">
+        <v>459.6709</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>2506.899</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>872.8161</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R36" s="6">
+        <v>1608.615</v>
       </c>
       <c r="S36" s="6">
-        <v>198.66</v>
+        <v>5647.005</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="6">
+        <v>1060.721</v>
       </c>
       <c r="W36" s="6">
-        <v>76.97</v>
+        <v>2186.028</v>
       </c>
       <c r="X36" s="6">
-        <v>42.14</v>
-      </c>
-      <c r="Y36" s="5"/>
+        <v>1200.283</v>
+      </c>
+      <c r="Y36" s="5">
+        <f t="shared" si="3"/>
+        <v>19964.9246</v>
+      </c>
       <c r="Z36" s="5">
         <f t="shared" si="4"/>
-        <v>240.8</v>
+        <v>6847.288</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="5"/>
-        <v>133.73</v>
+        <v>3794.643</v>
       </c>
       <c r="AB36" s="5">
         <f t="shared" ref="AB36:AC36" si="39">IFS(Z36&lt;10, 0, AND(Z36&gt;10,Z36&lt;100), 1, Z36&gt;100, 2)</f>
@@ -3550,7 +4223,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="2">
@@ -3569,35 +4242,71 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N37" s="2">
-        <v>56.78999999999999</v>
-      </c>
-      <c r="O37" s="2">
-        <v>94.64999999999998</v>
-      </c>
-      <c r="P37" s="2">
-        <v>94.64999999999998</v>
-      </c>
-      <c r="R37" s="2">
-        <v>75.71999999999998</v>
+      <c r="G37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2231.83</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1366.752</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>4370.653</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1220.289</v>
+      </c>
+      <c r="O37" s="6">
+        <v>2178.157</v>
+      </c>
+      <c r="P37" s="6">
+        <v>2141.842</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R37" s="6">
+        <v>1630.891</v>
       </c>
       <c r="S37" s="6">
-        <v>1596.4299999999998</v>
+        <v>35665.1</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V37" s="6">
+        <v>372.4823</v>
       </c>
       <c r="W37" s="6">
-        <v>1842.52</v>
+        <v>41116.35</v>
       </c>
       <c r="X37" s="6">
-        <v>378.5999999999999</v>
-      </c>
-      <c r="Y37" s="5"/>
+        <v>8491.409</v>
+      </c>
+      <c r="Y37" s="5">
+        <f t="shared" si="3"/>
+        <v>100785.7553</v>
+      </c>
       <c r="Z37" s="5">
         <f t="shared" si="4"/>
-        <v>1975.03</v>
+        <v>44156.509</v>
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="5"/>
-        <v>2069.68</v>
+        <v>46145.687</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" ref="AB37:AC37" si="40">IFS(Z37&lt;10, 0, AND(Z37&gt;10,Z37&lt;100), 1, Z37&gt;100, 2)</f>
@@ -3609,7 +4318,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="2">
@@ -3628,11 +4337,80 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
+      <c r="G38" s="6">
+        <v>212.9399326</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>426.1941</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1824.461</v>
+      </c>
+      <c r="N38" s="6">
+        <v>162.3478</v>
+      </c>
+      <c r="O38" s="6">
+        <v>152.4622</v>
+      </c>
+      <c r="P38" s="6">
+        <v>90.88447</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R38" s="6">
+        <v>95.31298</v>
+      </c>
+      <c r="S38" s="6">
+        <v>5725.921</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V38" s="6">
+        <v>121.234</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1052.786</v>
+      </c>
+      <c r="X38" s="6">
+        <v>2303.99</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" si="3"/>
+        <v>12168.53348</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="4"/>
+        <v>8029.911</v>
+      </c>
+      <c r="AA38" s="5">
+        <f t="shared" si="5"/>
+        <v>1462.90898</v>
+      </c>
+      <c r="AB38" s="5">
+        <f t="shared" ref="AB38:AC38" si="41">IFS(Z38&lt;10, 0, AND(Z38&gt;10,Z38&lt;100), 1, Z38&gt;100, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AC38" s="5">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -3709,23 +4487,23 @@
         <v>19000.0</v>
       </c>
       <c r="Y39" s="5">
-        <f t="shared" ref="Y39:Y40" si="42">SUM(G39:X39)</f>
+        <f t="shared" si="3"/>
         <v>301000</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" ref="Z39:Z40" si="43">X39+S39</f>
+        <f t="shared" si="4"/>
         <v>189000</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" ref="AA39:AA40" si="44">N39+O39+R39+T39+W39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB39" s="5">
-        <f t="shared" ref="AB39:AC39" si="41">IFS(Z39&lt;10, 0, AND(Z39&gt;10,Z39&lt;100), 1, Z39&gt;100, 2)</f>
+        <f t="shared" ref="AB39:AC39" si="42">IFS(Z39&lt;10, 0, AND(Z39&gt;10,Z39&lt;100), 1, Z39&gt;100, 2)</f>
         <v>2</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3804,23 +4582,23 @@
         <v>202000.0</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="3"/>
         <v>10483000</v>
       </c>
       <c r="Z40" s="5">
+        <f t="shared" si="4"/>
+        <v>5624000</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" si="5"/>
+        <v>393000</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" ref="AB40:AC40" si="43">IFS(Z40&lt;10, 0, AND(Z40&gt;10,Z40&lt;100), 1, Z40&gt;100, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AC40" s="5">
         <f t="shared" si="43"/>
-        <v>5624000</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" si="44"/>
-        <v>393000</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" ref="AB40:AC40" si="45">IFS(Z40&lt;10, 0, AND(Z40&gt;10,Z40&lt;100), 1, Z40&gt;100, 2)</f>
-        <v>2</v>
-      </c>
-      <c r="AC40" s="5">
-        <f t="shared" si="45"/>
         <v>2</v>
       </c>
     </row>
@@ -3943,23 +4721,23 @@
         <v>549100.0</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Y47" si="47">SUM(G42:X42)</f>
+        <f t="shared" ref="Y42:Y47" si="45">SUM(G42:X42)</f>
         <v>858400</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" ref="Z42:Z47" si="48">X42+S42</f>
+        <f t="shared" ref="Z42:Z47" si="46">X42+S42</f>
         <v>816400</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" ref="AA42:AA47" si="49">N42+O42+R42+T42+W42</f>
+        <f t="shared" ref="AA42:AA47" si="47">N42+O42+R42+T42+W42</f>
         <v>0</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" ref="AB42:AC42" si="46">IFS(Z42&lt;10, 0, AND(Z42&gt;10,Z42&lt;100), 1, Z42&gt;100, 2)</f>
+        <f t="shared" ref="AB42:AC42" si="44">IFS(Z42&lt;10, 0, AND(Z42&gt;10,Z42&lt;100), 1, Z42&gt;100, 2)</f>
         <v>2</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -4038,23 +4816,23 @@
         <v>600.0</v>
       </c>
       <c r="Y43" s="5">
+        <f t="shared" si="45"/>
+        <v>7900</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="46"/>
+        <v>5400</v>
+      </c>
+      <c r="AA43" s="5">
         <f t="shared" si="47"/>
-        <v>7900</v>
-      </c>
-      <c r="Z43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="5">
+        <f t="shared" ref="AB43:AC43" si="48">IFS(Z43&lt;10, 0, AND(Z43&gt;10,Z43&lt;100), 1, Z43&gt;100, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AC43" s="5">
         <f t="shared" si="48"/>
-        <v>5400</v>
-      </c>
-      <c r="AA43" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="5">
-        <f t="shared" ref="AB43:AC43" si="50">IFS(Z43&lt;10, 0, AND(Z43&gt;10,Z43&lt;100), 1, Z43&gt;100, 2)</f>
-        <v>2</v>
-      </c>
-      <c r="AC43" s="5">
-        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -4133,23 +4911,23 @@
         <v>886100.0</v>
       </c>
       <c r="Y44" s="5">
+        <f t="shared" si="45"/>
+        <v>2532000</v>
+      </c>
+      <c r="Z44" s="5">
+        <f t="shared" si="46"/>
+        <v>1751400</v>
+      </c>
+      <c r="AA44" s="5">
         <f t="shared" si="47"/>
-        <v>2532000</v>
-      </c>
-      <c r="Z44" s="5">
-        <f t="shared" si="48"/>
-        <v>1751400</v>
-      </c>
-      <c r="AA44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="5">
+        <f t="shared" ref="AB44:AC44" si="49">IFS(Z44&lt;10, 0, AND(Z44&gt;10,Z44&lt;100), 1, Z44&gt;100, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AC44" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="5">
-        <f t="shared" ref="AB44:AC44" si="51">IFS(Z44&lt;10, 0, AND(Z44&gt;10,Z44&lt;100), 1, Z44&gt;100, 2)</f>
-        <v>2</v>
-      </c>
-      <c r="AC44" s="5">
-        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -4228,23 +5006,23 @@
         <v>0.0</v>
       </c>
       <c r="Y45" s="5">
+        <f t="shared" si="45"/>
+        <v>2215000</v>
+      </c>
+      <c r="Z45" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5">
         <f t="shared" si="47"/>
-        <v>2215000</v>
-      </c>
-      <c r="Z45" s="5">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="5">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB45" s="5">
-        <f t="shared" ref="AB45:AC45" si="52">IFS(Z45&lt;10, 0, AND(Z45&gt;10,Z45&lt;100), 1, Z45&gt;100, 2)</f>
+        <f t="shared" ref="AB45:AC45" si="50">IFS(Z45&lt;10, 0, AND(Z45&gt;10,Z45&lt;100), 1, Z45&gt;100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC45" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -4323,23 +5101,23 @@
         <v>14800.0</v>
       </c>
       <c r="Y46" s="5">
+        <f t="shared" si="45"/>
+        <v>35900</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="46"/>
+        <v>31300</v>
+      </c>
+      <c r="AA46" s="5">
         <f t="shared" si="47"/>
-        <v>35900</v>
-      </c>
-      <c r="Z46" s="5">
-        <f t="shared" si="48"/>
-        <v>31300</v>
-      </c>
-      <c r="AA46" s="5">
-        <f t="shared" si="49"/>
         <v>1100</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" ref="AB46:AC46" si="53">IFS(Z46&lt;10, 0, AND(Z46&gt;10,Z46&lt;100), 1, Z46&gt;100, 2)</f>
+        <f t="shared" ref="AB46:AC46" si="51">IFS(Z46&lt;10, 0, AND(Z46&gt;10,Z46&lt;100), 1, Z46&gt;100, 2)</f>
         <v>2</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
     </row>
@@ -4418,23 +5196,23 @@
         <v>42000.0</v>
       </c>
       <c r="Y47" s="5">
+        <f t="shared" si="45"/>
+        <v>1429000</v>
+      </c>
+      <c r="Z47" s="5">
+        <f t="shared" si="46"/>
+        <v>183000</v>
+      </c>
+      <c r="AA47" s="5">
         <f t="shared" si="47"/>
-        <v>1429000</v>
-      </c>
-      <c r="Z47" s="5">
-        <f t="shared" si="48"/>
-        <v>183000</v>
-      </c>
-      <c r="AA47" s="5">
-        <f t="shared" si="49"/>
         <v>97000</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" ref="AB47:AC47" si="54">IFS(Z47&lt;10, 0, AND(Z47&gt;10,Z47&lt;100), 1, Z47&gt;100, 2)</f>
+        <f t="shared" ref="AB47:AC47" si="52">IFS(Z47&lt;10, 0, AND(Z47&gt;10,Z47&lt;100), 1, Z47&gt;100, 2)</f>
         <v>2</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
     </row>
@@ -5446,37 +6224,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5484,95 +6262,95 @@
       <c r="A8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
@@ -5580,132 +6358,132 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5716,7 +6494,7 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5727,7 +6505,7 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6754,7 +7532,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="2">
@@ -6786,7 +7564,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="2">
@@ -6818,7 +7596,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="2">
@@ -6849,7 +7627,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="2">
@@ -6880,7 +7658,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="2">
@@ -6911,7 +7689,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="2">
@@ -6942,7 +7720,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B9" s="2">
@@ -6973,7 +7751,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="2">
@@ -7004,7 +7782,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="2">
@@ -7035,7 +7813,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="2">
@@ -7066,7 +7844,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="2">
@@ -7097,7 +7875,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="2">
@@ -7128,7 +7906,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="2">
@@ -7159,7 +7937,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="2">
@@ -7190,7 +7968,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="2">
@@ -7221,7 +7999,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B18" s="2">
@@ -7252,7 +8030,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="2">
@@ -7314,7 +8092,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="2">
@@ -7360,7 +8138,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="2">
@@ -7397,7 +8175,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B27" s="2">
@@ -7434,7 +8212,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="2">
@@ -7470,7 +8248,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="2">
@@ -7506,7 +8284,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="2">
@@ -7542,7 +8320,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B31" s="2">
@@ -7578,7 +8356,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B32" s="2">
@@ -7614,7 +8392,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="2">
@@ -7650,7 +8428,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="2">
@@ -7686,7 +8464,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B35" s="2">
@@ -7722,7 +8500,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B36" s="2">
@@ -7758,7 +8536,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B37" s="2">
@@ -7794,7 +8572,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="2">
@@ -7830,7 +8608,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B39" s="2">
@@ -7866,7 +8644,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="2">
@@ -7902,7 +8680,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B41" s="2">
@@ -7938,7 +8716,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="2">
@@ -8010,7 +8788,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="2">
@@ -8047,6 +8825,1258 @@
     </row>
     <row r="48">
       <c r="A48" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8283.722793</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7094.426</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1958.699</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>31546.62</v>
+      </c>
+      <c r="I2" s="6">
+        <v>12603.66</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5145.782</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7428.687</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4323.994</v>
+      </c>
+      <c r="N2" s="6">
+        <v>334182.6</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>6798.439</v>
+      </c>
+      <c r="R2" s="6">
+        <v>17481.03</v>
+      </c>
+      <c r="S2" s="6">
+        <v>87766.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2568.070533</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4972.456</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4662.411</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1335.347</v>
+      </c>
+      <c r="J3" s="6">
+        <v>490.0441</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1370.383</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>87152.58</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1708.473</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>68480.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6">
+        <v>827.3216834</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2321.879</v>
+      </c>
+      <c r="E4" s="6">
+        <v>547.3367</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1166.524</v>
+      </c>
+      <c r="I4" s="6">
+        <v>762.3397</v>
+      </c>
+      <c r="J4" s="6">
+        <v>463.763</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1035.264</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4738.403</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9587.513</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>445.5364</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5928.334</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2654.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6">
+        <v>628.3342108</v>
+      </c>
+      <c r="C5" s="6">
+        <v>797.1446</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1328.313</v>
+      </c>
+      <c r="E5" s="6">
+        <v>22.9411</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2198.037</v>
+      </c>
+      <c r="I5" s="6">
+        <v>462.0313</v>
+      </c>
+      <c r="J5" s="6">
+        <v>394.0505</v>
+      </c>
+      <c r="K5" s="6">
+        <v>941.6909</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3726.975</v>
+      </c>
+      <c r="N5" s="6">
+        <v>7903.058</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>62.40012</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4562.808</v>
+      </c>
+      <c r="S5" s="6">
+        <v>3143.943</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>224.5456943</v>
+      </c>
+      <c r="C6" s="6">
+        <v>608.8804</v>
+      </c>
+      <c r="D6" s="6">
+        <v>273.0607</v>
+      </c>
+      <c r="E6" s="6">
+        <v>171.8477</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>699.4654</v>
+      </c>
+      <c r="I6" s="6">
+        <v>348.935</v>
+      </c>
+      <c r="J6" s="6">
+        <v>383.737</v>
+      </c>
+      <c r="K6" s="6">
+        <v>650.0576</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4169.128</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5968.408</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>167.1401</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5404.174</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1918.141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6">
+        <v>367.8031105</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>424.8461</v>
+      </c>
+      <c r="E7" s="6">
+        <v>578.6559</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>816.5276</v>
+      </c>
+      <c r="I7" s="6">
+        <v>421.1654</v>
+      </c>
+      <c r="J7" s="6">
+        <v>644.5417</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1627.367</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5203.848</v>
+      </c>
+      <c r="N7" s="6">
+        <v>7631.457</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>487.2359</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2619.717</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3908.883</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6">
+        <v>566.6479762</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1741.656</v>
+      </c>
+      <c r="E8" s="6">
+        <v>351.0444</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3479.059</v>
+      </c>
+      <c r="I8" s="6">
+        <v>201.9113</v>
+      </c>
+      <c r="J8" s="6">
+        <v>495.5312</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1358.046</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>5972.913</v>
+      </c>
+      <c r="N8" s="6">
+        <v>8799.849</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>890.4522</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2912.83</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1643.607</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1831.115665</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1974.8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>800.5491</v>
+      </c>
+      <c r="E9" s="6">
+        <v>295.8568</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1215.162</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>784.1084</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>18737.62</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>595.2311</v>
+      </c>
+      <c r="R9" s="6">
+        <v>414.9948</v>
+      </c>
+      <c r="S9" s="6">
+        <v>7215.036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2317.998286</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2872.638</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2875.041</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1083.304</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2547.201</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>824.6934</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>20736.11</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>4990.041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13687.03813</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20943.92</v>
+      </c>
+      <c r="D11" s="6">
+        <v>11309.66</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4352.095</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5290.194</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>7776.532</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>65250.63</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2140.708</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>22022.31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6">
+        <v>430.1582709</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>710.1942</v>
+      </c>
+      <c r="E12" s="6">
+        <v>87.16423</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>348.9623</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>111.7867</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>4839.364</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>103.9309</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2593.219</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2446.779425</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4047.469</v>
+      </c>
+      <c r="E13" s="6">
+        <v>192.716</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6351.624</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4709.637</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1019.05</v>
+      </c>
+      <c r="N13" s="6">
+        <v>132265.6</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>6465.673</v>
+      </c>
+      <c r="R13" s="6">
+        <v>24069.82</v>
+      </c>
+      <c r="S13" s="6">
+        <v>37614.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6">
+        <v>269.9928391</v>
+      </c>
+      <c r="C14" s="6">
+        <v>102.0677</v>
+      </c>
+      <c r="D14" s="6">
+        <v>203.6108</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>290.8137</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>52.50489</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>8627.354</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>62.24669</v>
+      </c>
+      <c r="R14" s="6">
+        <v>379.8067</v>
+      </c>
+      <c r="S14" s="6">
+        <v>7806.091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3021.120728</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1988.224</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8903.785</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4533.571</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>16244.01</v>
+      </c>
+      <c r="N15" s="6">
+        <v>171125.3</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4760.365</v>
+      </c>
+      <c r="R15" s="6">
+        <v>31901.64</v>
+      </c>
+      <c r="S15" s="6">
+        <v>75711.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="6">
+        <v>626.2537932</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>752.8922</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>374.404</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>310.3097</v>
+      </c>
+      <c r="N16" s="6">
+        <v>12851.28</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>11871.86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5483.009796</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4490.404</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3517.481</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10029.95</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7966.905</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>27020.32</v>
+      </c>
+      <c r="N17" s="6">
+        <v>76198.57</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>10381.58</v>
+      </c>
+      <c r="R17" s="6">
+        <v>103091.5</v>
+      </c>
+      <c r="S17" s="6">
+        <v>24309.16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6">
+        <v>510.9929467</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1381.663</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1343.534</v>
+      </c>
+      <c r="E18" s="6">
+        <v>499.5671</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3274.154</v>
+      </c>
+      <c r="I18" s="6">
+        <v>774.802</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1019.408</v>
+      </c>
+      <c r="K18" s="6">
+        <v>906.479</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>6149.732</v>
+      </c>
+      <c r="N18" s="6">
+        <v>9392.305</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>768.1184</v>
+      </c>
+      <c r="R18" s="6">
+        <v>5181.883</v>
+      </c>
+      <c r="S18" s="6">
+        <v>491.1586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="6">
+        <v>881.7576012</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1868.367</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1672.762</v>
+      </c>
+      <c r="E19" s="6">
+        <v>459.6709</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2506.899</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>872.8161</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1608.615</v>
+      </c>
+      <c r="N19" s="6">
+        <v>5647.005</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1060.721</v>
+      </c>
+      <c r="R19" s="6">
+        <v>2186.028</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1200.283</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2231.83</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1366.752</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4370.653</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1220.289</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2178.157</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2141.842</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1630.891</v>
+      </c>
+      <c r="N20" s="6">
+        <v>35665.1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>372.4823</v>
+      </c>
+      <c r="R20" s="6">
+        <v>41116.35</v>
+      </c>
+      <c r="S20" s="6">
+        <v>8491.409</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6">
+        <v>212.9399326</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>426.1941</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1824.461</v>
+      </c>
+      <c r="I21" s="6">
+        <v>162.3478</v>
+      </c>
+      <c r="J21" s="6">
+        <v>152.4622</v>
+      </c>
+      <c r="K21" s="6">
+        <v>90.88447</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>95.31298</v>
+      </c>
+      <c r="N21" s="6">
+        <v>5725.921</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>121.234</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1052.786</v>
+      </c>
+      <c r="S21" s="6">
+        <v>2303.99</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
